--- a/Data/Bayesian_Outputs.xlsx
+++ b/Data/Bayesian_Outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy/Documents/Documents/Project/3 - Coral_Physiology/Coral_Physiology/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6DFC53-BE75-4049-B368-9656AD1D0F5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA0483A5-EC89-304F-819C-B5B098DB523A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
